--- a/Code/Results/Cases/Case_0_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_118/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.029655388608001</v>
+        <v>1.065754003257296</v>
       </c>
       <c r="D2">
-        <v>1.044671658276429</v>
+        <v>1.075513797482597</v>
       </c>
       <c r="E2">
-        <v>1.041640199388965</v>
+        <v>1.071381818570679</v>
       </c>
       <c r="F2">
-        <v>1.052054740902268</v>
+        <v>1.083315849450454</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061658427265378</v>
+        <v>1.049096248622849</v>
       </c>
       <c r="J2">
-        <v>1.050983898774446</v>
+        <v>1.070707502821462</v>
       </c>
       <c r="K2">
-        <v>1.055541844033793</v>
+        <v>1.078200167420375</v>
       </c>
       <c r="L2">
-        <v>1.052548370997589</v>
+        <v>1.074079141773484</v>
       </c>
       <c r="M2">
-        <v>1.06283355190172</v>
+        <v>1.08598178331625</v>
       </c>
       <c r="N2">
-        <v>1.020081001430046</v>
+        <v>1.02717197696528</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03591640399419</v>
+        <v>1.067039899323876</v>
       </c>
       <c r="D3">
-        <v>1.050354068340066</v>
+        <v>1.07672745977088</v>
       </c>
       <c r="E3">
-        <v>1.046991844879706</v>
+        <v>1.072527167338824</v>
       </c>
       <c r="F3">
-        <v>1.057807799796328</v>
+        <v>1.084549191914757</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06366273583609</v>
+        <v>1.049398172960842</v>
       </c>
       <c r="J3">
-        <v>1.055473636845111</v>
+        <v>1.071647532168435</v>
       </c>
       <c r="K3">
-        <v>1.060380782620355</v>
+        <v>1.079230188032737</v>
       </c>
       <c r="L3">
-        <v>1.05705679132686</v>
+        <v>1.075040221041172</v>
       </c>
       <c r="M3">
-        <v>1.06775082342304</v>
+        <v>1.087032921357636</v>
       </c>
       <c r="N3">
-        <v>1.021627699452761</v>
+        <v>1.02749133821702</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.039864054422111</v>
+        <v>1.067871415466116</v>
       </c>
       <c r="D4">
-        <v>1.053941666028868</v>
+        <v>1.077512511587654</v>
       </c>
       <c r="E4">
-        <v>1.050371672176463</v>
+        <v>1.073268086722166</v>
       </c>
       <c r="F4">
-        <v>1.061440724502938</v>
+        <v>1.085347038162497</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064910616072515</v>
+        <v>1.049591457502019</v>
       </c>
       <c r="J4">
-        <v>1.058300223503484</v>
+        <v>1.072254723255136</v>
       </c>
       <c r="K4">
-        <v>1.063429896903284</v>
+        <v>1.079895837857626</v>
       </c>
       <c r="L4">
-        <v>1.059897913653307</v>
+        <v>1.075661319218596</v>
       </c>
       <c r="M4">
-        <v>1.070850128217316</v>
+        <v>1.087712297195847</v>
       </c>
       <c r="N4">
-        <v>1.022600869707388</v>
+        <v>1.027697469756699</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.041499990785336</v>
+        <v>1.06822085724716</v>
       </c>
       <c r="D5">
-        <v>1.055429482830079</v>
+        <v>1.07784248503117</v>
       </c>
       <c r="E5">
-        <v>1.051773567836698</v>
+        <v>1.073579523650474</v>
       </c>
       <c r="F5">
-        <v>1.06294750854648</v>
+        <v>1.085682404738006</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065423884279675</v>
+        <v>1.049672216772912</v>
       </c>
       <c r="J5">
-        <v>1.059470513881606</v>
+        <v>1.07250973178019</v>
       </c>
       <c r="K5">
-        <v>1.064692965633154</v>
+        <v>1.080175477200263</v>
       </c>
       <c r="L5">
-        <v>1.061074885327318</v>
+        <v>1.075922242778318</v>
       </c>
       <c r="M5">
-        <v>1.072134184081824</v>
+        <v>1.087997721685946</v>
       </c>
       <c r="N5">
-        <v>1.023003641461768</v>
+        <v>1.027784004303999</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.041773316681277</v>
+        <v>1.068279522657399</v>
       </c>
       <c r="D6">
-        <v>1.055678123998936</v>
+        <v>1.077897885427157</v>
       </c>
       <c r="E6">
-        <v>1.05200786405548</v>
+        <v>1.073631812660028</v>
       </c>
       <c r="F6">
-        <v>1.06319932935339</v>
+        <v>1.08573871150566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065509410369898</v>
+        <v>1.049685747449751</v>
       </c>
       <c r="J6">
-        <v>1.059665977240314</v>
+        <v>1.072552533953525</v>
       </c>
       <c r="K6">
-        <v>1.064903962952857</v>
+        <v>1.080222418210293</v>
       </c>
       <c r="L6">
-        <v>1.061271503538443</v>
+        <v>1.075966042126569</v>
       </c>
       <c r="M6">
-        <v>1.072348698774338</v>
+        <v>1.08804563491092</v>
       </c>
       <c r="N6">
-        <v>1.023070903805944</v>
+        <v>1.027798526628338</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.039886005362974</v>
+        <v>1.067876085222253</v>
       </c>
       <c r="D7">
-        <v>1.053961625269025</v>
+        <v>1.077516920951408</v>
       </c>
       <c r="E7">
-        <v>1.050390477824562</v>
+        <v>1.073272248334531</v>
       </c>
       <c r="F7">
-        <v>1.06146093752513</v>
+        <v>1.085351519533172</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064917518438926</v>
+        <v>1.049592538565686</v>
       </c>
       <c r="J7">
-        <v>1.058315930710512</v>
+        <v>1.072258131689822</v>
       </c>
       <c r="K7">
-        <v>1.063446846791761</v>
+        <v>1.079899575195202</v>
       </c>
       <c r="L7">
-        <v>1.059913707913771</v>
+        <v>1.075664806421213</v>
       </c>
       <c r="M7">
-        <v>1.070867358973232</v>
+        <v>1.087716111776989</v>
       </c>
       <c r="N7">
-        <v>1.022606276167037</v>
+        <v>1.027698626518828</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.031793510826125</v>
+        <v>1.066188692288237</v>
       </c>
       <c r="D8">
-        <v>1.046611150828427</v>
+        <v>1.075924017219614</v>
       </c>
       <c r="E8">
-        <v>1.043466567902426</v>
+        <v>1.071768936595649</v>
       </c>
       <c r="F8">
-        <v>1.054018192572233</v>
+        <v>1.083732707750741</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06234619681605</v>
+        <v>1.049198716535099</v>
       </c>
       <c r="J8">
-        <v>1.052517997891945</v>
+        <v>1.071025412895092</v>
       </c>
       <c r="K8">
-        <v>1.057194697206326</v>
+        <v>1.078548443232625</v>
       </c>
       <c r="L8">
-        <v>1.054088267559165</v>
+        <v>1.074404106427835</v>
       </c>
       <c r="M8">
-        <v>1.064512984372795</v>
+        <v>1.086337183089768</v>
       </c>
       <c r="N8">
-        <v>1.020609607998497</v>
+        <v>1.027280013857643</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016683232636328</v>
+        <v>1.063210994615946</v>
       </c>
       <c r="D9">
-        <v>1.032927488726348</v>
+        <v>1.073114967097621</v>
       </c>
       <c r="E9">
-        <v>1.030586021732328</v>
+        <v>1.069118313132635</v>
       </c>
       <c r="F9">
-        <v>1.040168758709754</v>
+        <v>1.080878465088139</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057420080436489</v>
+        <v>1.0484887899057</v>
       </c>
       <c r="J9">
-        <v>1.0416603121765</v>
+        <v>1.068844925771135</v>
       </c>
       <c r="K9">
-        <v>1.045508011040422</v>
+        <v>1.076161041920498</v>
       </c>
       <c r="L9">
-        <v>1.043201614606223</v>
+        <v>1.072176509269538</v>
       </c>
       <c r="M9">
-        <v>1.052642089668312</v>
+        <v>1.083901273314458</v>
       </c>
       <c r="N9">
-        <v>1.016866337807096</v>
+        <v>1.026538385644028</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005951279705719</v>
+        <v>1.061222797548233</v>
       </c>
       <c r="D10">
-        <v>1.023241012692644</v>
+        <v>1.071240690722992</v>
       </c>
       <c r="E10">
-        <v>1.021475007017825</v>
+        <v>1.067350041851489</v>
       </c>
       <c r="F10">
-        <v>1.030369322828066</v>
+        <v>1.07897437134853</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053840379892207</v>
+        <v>1.048004734958331</v>
       </c>
       <c r="J10">
-        <v>1.033930750985978</v>
+        <v>1.067385589007312</v>
       </c>
       <c r="K10">
-        <v>1.037202950578245</v>
+        <v>1.07456492968041</v>
       </c>
       <c r="L10">
-        <v>1.035467054872475</v>
+        <v>1.070687246875739</v>
       </c>
       <c r="M10">
-        <v>1.044211076657675</v>
+        <v>1.08227314130973</v>
       </c>
       <c r="N10">
-        <v>1.014199465404187</v>
+        <v>1.026041258109073</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.001126071467531</v>
+        <v>1.060361119003976</v>
       </c>
       <c r="D11">
-        <v>1.018894585290534</v>
+        <v>1.070428704491926</v>
       </c>
       <c r="E11">
-        <v>1.017388648881763</v>
+        <v>1.066584052179851</v>
       </c>
       <c r="F11">
-        <v>1.02597333045685</v>
+        <v>1.078149547882907</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052212634027896</v>
+        <v>1.047792569985361</v>
       </c>
       <c r="J11">
-        <v>1.030452079467971</v>
+        <v>1.066752307351756</v>
       </c>
       <c r="K11">
-        <v>1.033468762428483</v>
+        <v>1.073872698256422</v>
       </c>
       <c r="L11">
-        <v>1.03198992579737</v>
+        <v>1.070041359356678</v>
       </c>
       <c r="M11">
-        <v>1.040421505473297</v>
+        <v>1.081567120942013</v>
       </c>
       <c r="N11">
-        <v>1.012998942488875</v>
+        <v>1.025825346188435</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9993048967161828</v>
+        <v>1.060040933057453</v>
       </c>
       <c r="D12">
-        <v>1.017255527162171</v>
+        <v>1.070127032031049</v>
       </c>
       <c r="E12">
-        <v>1.015847961721396</v>
+        <v>1.066299479550659</v>
       </c>
       <c r="F12">
-        <v>1.024315757205055</v>
+        <v>1.077843118221502</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051595617250868</v>
+        <v>1.047713376077178</v>
       </c>
       <c r="J12">
-        <v>1.029138703722904</v>
+        <v>1.066516868807483</v>
       </c>
       <c r="K12">
-        <v>1.032059440708468</v>
+        <v>1.073615404327781</v>
       </c>
       <c r="L12">
-        <v>1.030677710379606</v>
+        <v>1.069801291425873</v>
       </c>
       <c r="M12">
-        <v>1.038991476170922</v>
+        <v>1.081304716598055</v>
       </c>
       <c r="N12">
-        <v>1.01254565490396</v>
+        <v>1.025745048160934</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9996968878771918</v>
+        <v>1.060109619525283</v>
       </c>
       <c r="D13">
-        <v>1.017608253991549</v>
+        <v>1.070191744765628</v>
       </c>
       <c r="E13">
-        <v>1.016179505261864</v>
+        <v>1.066360523645149</v>
       </c>
       <c r="F13">
-        <v>1.024672460426064</v>
+        <v>1.077908850888218</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051728542990752</v>
+        <v>1.047730380938532</v>
       </c>
       <c r="J13">
-        <v>1.029421413507783</v>
+        <v>1.066567380694173</v>
       </c>
       <c r="K13">
-        <v>1.032362779574031</v>
+        <v>1.073670602406839</v>
       </c>
       <c r="L13">
-        <v>1.03096014415976</v>
+        <v>1.069852793932237</v>
       </c>
       <c r="M13">
-        <v>1.039299263181065</v>
+        <v>1.081361010361789</v>
       </c>
       <c r="N13">
-        <v>1.012643228043564</v>
+        <v>1.025762276839426</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000976134645863</v>
+        <v>1.060334654805872</v>
       </c>
       <c r="D14">
-        <v>1.01875961283957</v>
+        <v>1.070403769486091</v>
       </c>
       <c r="E14">
-        <v>1.017261770882001</v>
+        <v>1.066560530350661</v>
       </c>
       <c r="F14">
-        <v>1.025836829709738</v>
+        <v>1.078124219418433</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052161888626179</v>
+        <v>1.047786031679581</v>
       </c>
       <c r="J14">
-        <v>1.030343957688461</v>
+        <v>1.066732850216336</v>
       </c>
       <c r="K14">
-        <v>1.03335273138083</v>
+        <v>1.073851433708652</v>
       </c>
       <c r="L14">
-        <v>1.031881887758843</v>
+        <v>1.070021518473177</v>
       </c>
       <c r="M14">
-        <v>1.04030376555565</v>
+        <v>1.081545433732793</v>
       </c>
       <c r="N14">
-        <v>1.012961626727351</v>
+        <v>1.025818710746541</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00176042753402</v>
+        <v>1.060473290438711</v>
       </c>
       <c r="D15">
-        <v>1.01946568778122</v>
+        <v>1.070534396270292</v>
       </c>
       <c r="E15">
-        <v>1.017925513939987</v>
+        <v>1.066683754390715</v>
       </c>
       <c r="F15">
-        <v>1.026550906767263</v>
+        <v>1.078256907908286</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052427221200762</v>
+        <v>1.047820268710857</v>
       </c>
       <c r="J15">
-        <v>1.03090950680472</v>
+        <v>1.066834773614002</v>
       </c>
       <c r="K15">
-        <v>1.033959672599977</v>
+        <v>1.073962827459533</v>
       </c>
       <c r="L15">
-        <v>1.032447022420051</v>
+        <v>1.070125454420021</v>
       </c>
       <c r="M15">
-        <v>1.040919653580052</v>
+        <v>1.081659042188909</v>
       </c>
       <c r="N15">
-        <v>1.013156812001626</v>
+        <v>1.025853468435753</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006267583662226</v>
+        <v>1.061279967659655</v>
       </c>
       <c r="D16">
-        <v>1.023526120660479</v>
+        <v>1.071294570660977</v>
       </c>
       <c r="E16">
-        <v>1.021743095568783</v>
+        <v>1.067400871189404</v>
       </c>
       <c r="F16">
-        <v>1.030657705966689</v>
+        <v>1.079029104809808</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053946710574028</v>
+        <v>1.048018761511545</v>
       </c>
       <c r="J16">
-        <v>1.034158723106813</v>
+        <v>1.067427588568267</v>
       </c>
       <c r="K16">
-        <v>1.037447740161077</v>
+        <v>1.074610847325395</v>
       </c>
       <c r="L16">
-        <v>1.035695005245517</v>
+        <v>1.070730090472896</v>
       </c>
       <c r="M16">
-        <v>1.044459523281975</v>
+        <v>1.082319975680802</v>
       </c>
       <c r="N16">
-        <v>1.014278135851617</v>
+        <v>1.026055573666116</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009045675249424</v>
+        <v>1.061785764670734</v>
       </c>
       <c r="D17">
-        <v>1.026031217394708</v>
+        <v>1.071771295720111</v>
       </c>
       <c r="E17">
-        <v>1.024098863713784</v>
+        <v>1.067850613172735</v>
       </c>
       <c r="F17">
-        <v>1.033191707889016</v>
+        <v>1.079513391066712</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054878551815201</v>
+        <v>1.048142583195244</v>
       </c>
       <c r="J17">
-        <v>1.036160625321824</v>
+        <v>1.067799074833423</v>
       </c>
       <c r="K17">
-        <v>1.039597716902962</v>
+        <v>1.075017035692229</v>
       </c>
       <c r="L17">
-        <v>1.037697146568026</v>
+        <v>1.071109086138881</v>
       </c>
       <c r="M17">
-        <v>1.046641761840795</v>
+        <v>1.082734284739193</v>
       </c>
       <c r="N17">
-        <v>1.014968935930947</v>
+        <v>1.026182173768103</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010649048456575</v>
+        <v>1.062080712871275</v>
       </c>
       <c r="D18">
-        <v>1.027477847677931</v>
+        <v>1.072049321795017</v>
       </c>
       <c r="E18">
-        <v>1.025459434214297</v>
+        <v>1.068112909685564</v>
       </c>
       <c r="F18">
-        <v>1.034655135561838</v>
+        <v>1.079795834587491</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055414633632697</v>
+        <v>1.048214558768517</v>
       </c>
       <c r="J18">
-        <v>1.037315697559157</v>
+        <v>1.068015623572629</v>
       </c>
       <c r="K18">
-        <v>1.040838554797593</v>
+        <v>1.075253852113688</v>
       </c>
       <c r="L18">
-        <v>1.038852713685743</v>
+        <v>1.071330048954122</v>
       </c>
       <c r="M18">
-        <v>1.047901336635162</v>
+        <v>1.082975845137384</v>
       </c>
       <c r="N18">
-        <v>1.015367489141641</v>
+        <v>1.026255954565348</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011192927304682</v>
+        <v>1.062181270032766</v>
       </c>
       <c r="D19">
-        <v>1.027968693446648</v>
+        <v>1.072144114867909</v>
       </c>
       <c r="E19">
-        <v>1.025921108578916</v>
+        <v>1.068202340937624</v>
       </c>
       <c r="F19">
-        <v>1.035151698393142</v>
+        <v>1.079892135103535</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055596181615677</v>
+        <v>1.048239058621562</v>
       </c>
       <c r="J19">
-        <v>1.037707451310462</v>
+        <v>1.06808943862188</v>
       </c>
       <c r="K19">
-        <v>1.041259452495892</v>
+        <v>1.075334582422909</v>
       </c>
       <c r="L19">
-        <v>1.039244695595151</v>
+        <v>1.071405374848391</v>
       </c>
       <c r="M19">
-        <v>1.048328609676881</v>
+        <v>1.083058194260151</v>
       </c>
       <c r="N19">
-        <v>1.015502656748881</v>
+        <v>1.026281101262758</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008749389418863</v>
+        <v>1.06173150518565</v>
       </c>
       <c r="D20">
-        <v>1.025763961285934</v>
+        <v>1.071720151748251</v>
       </c>
       <c r="E20">
-        <v>1.023847520549004</v>
+        <v>1.067802363274776</v>
       </c>
       <c r="F20">
-        <v>1.032921357039243</v>
+        <v>1.079461435112559</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054779349182296</v>
+        <v>1.04812932390942</v>
       </c>
       <c r="J20">
-        <v>1.035947153821205</v>
+        <v>1.067759231638704</v>
       </c>
       <c r="K20">
-        <v>1.039368421445583</v>
+        <v>1.074973466546856</v>
       </c>
       <c r="L20">
-        <v>1.037483612442637</v>
+        <v>1.071068433742234</v>
       </c>
       <c r="M20">
-        <v>1.046409013423568</v>
+        <v>1.082689843563734</v>
       </c>
       <c r="N20">
-        <v>1.014895275897583</v>
+        <v>1.026168597286846</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000600243534489</v>
+        <v>1.060268390870604</v>
       </c>
       <c r="D21">
-        <v>1.018421260412453</v>
+        <v>1.070341335296066</v>
       </c>
       <c r="E21">
-        <v>1.016943714692648</v>
+        <v>1.066501634759428</v>
       </c>
       <c r="F21">
-        <v>1.025494648971098</v>
+        <v>1.078060800252651</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052034627613374</v>
+        <v>1.047769654596786</v>
       </c>
       <c r="J21">
-        <v>1.030072890232006</v>
+        <v>1.066684129369413</v>
       </c>
       <c r="K21">
-        <v>1.033061843383184</v>
+        <v>1.07379818806457</v>
       </c>
       <c r="L21">
-        <v>1.031611039575473</v>
+        <v>1.069971837640787</v>
       </c>
       <c r="M21">
-        <v>1.040008596603546</v>
+        <v>1.081491129998665</v>
       </c>
       <c r="N21">
-        <v>1.012868073579839</v>
+        <v>1.025802095098526</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9953082651256651</v>
+        <v>1.059347775789179</v>
       </c>
       <c r="D22">
-        <v>1.013661274823763</v>
+        <v>1.069474043444475</v>
       </c>
       <c r="E22">
-        <v>1.012469995608187</v>
+        <v>1.065683524864903</v>
       </c>
       <c r="F22">
-        <v>1.020681236801328</v>
+        <v>1.077179854648719</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050236757655268</v>
+        <v>1.047541280245423</v>
       </c>
       <c r="J22">
-        <v>1.026255773273573</v>
+        <v>1.066006956400384</v>
       </c>
       <c r="K22">
-        <v>1.028966871699334</v>
+        <v>1.073058268555292</v>
       </c>
       <c r="L22">
-        <v>1.02779840201768</v>
+        <v>1.069281457288841</v>
       </c>
       <c r="M22">
-        <v>1.035853833876524</v>
+        <v>1.080736541960926</v>
       </c>
       <c r="N22">
-        <v>1.011550629890588</v>
+        <v>1.025571089069959</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9981303571529296</v>
+        <v>1.059835878529414</v>
       </c>
       <c r="D23">
-        <v>1.016198851941609</v>
+        <v>1.069933847734497</v>
       </c>
       <c r="E23">
-        <v>1.014854791156798</v>
+        <v>1.066117248717262</v>
       </c>
       <c r="F23">
-        <v>1.023247196208907</v>
+        <v>1.07764689094518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051196943794038</v>
+        <v>1.047662558051031</v>
       </c>
       <c r="J23">
-        <v>1.028291553292332</v>
+        <v>1.066366054411028</v>
       </c>
       <c r="K23">
-        <v>1.031150551449543</v>
+        <v>1.073450607153261</v>
       </c>
       <c r="L23">
-        <v>1.029831472417692</v>
+        <v>1.069647527687099</v>
       </c>
       <c r="M23">
-        <v>1.038069288098818</v>
+        <v>1.08113665035694</v>
       </c>
       <c r="N23">
-        <v>1.012253270416443</v>
+        <v>1.025693604150897</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008883320737011</v>
+        <v>1.061756022941911</v>
       </c>
       <c r="D24">
-        <v>1.025884767653113</v>
+        <v>1.071743261629968</v>
       </c>
       <c r="E24">
-        <v>1.023961133334488</v>
+        <v>1.067824165420632</v>
       </c>
       <c r="F24">
-        <v>1.033043561979412</v>
+        <v>1.079484911872108</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054824197536824</v>
+        <v>1.048135315974748</v>
       </c>
       <c r="J24">
-        <v>1.036043651244527</v>
+        <v>1.067777235474022</v>
       </c>
       <c r="K24">
-        <v>1.039472070893154</v>
+        <v>1.074993153896913</v>
       </c>
       <c r="L24">
-        <v>1.037580137067375</v>
+        <v>1.071086803116123</v>
       </c>
       <c r="M24">
-        <v>1.046514223364344</v>
+        <v>1.082709924924057</v>
       </c>
       <c r="N24">
-        <v>1.014928573191791</v>
+        <v>1.02617473210869</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.020698803495277</v>
+        <v>1.063981328082024</v>
       </c>
       <c r="D25">
-        <v>1.036558747085322</v>
+        <v>1.073841442090598</v>
       </c>
       <c r="E25">
-        <v>1.034003027995391</v>
+        <v>1.069803763855253</v>
       </c>
       <c r="F25">
-        <v>1.043843280642339</v>
+        <v>1.081616568709274</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058743340526188</v>
+        <v>1.048674218467169</v>
       </c>
       <c r="J25">
-        <v>1.044549100337964</v>
+        <v>1.069409626584503</v>
       </c>
       <c r="K25">
-        <v>1.048614857268819</v>
+        <v>1.076779028830543</v>
       </c>
       <c r="L25">
-        <v>1.046095464730982</v>
+        <v>1.072753128428622</v>
       </c>
       <c r="M25">
-        <v>1.055797081544108</v>
+        <v>1.084531744652643</v>
       </c>
       <c r="N25">
-        <v>1.017862676168154</v>
+        <v>1.026730589287099</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_118/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.065754003257296</v>
+        <v>1.029655388608001</v>
       </c>
       <c r="D2">
-        <v>1.075513797482597</v>
+        <v>1.044671658276429</v>
       </c>
       <c r="E2">
-        <v>1.071381818570679</v>
+        <v>1.041640199388966</v>
       </c>
       <c r="F2">
-        <v>1.083315849450454</v>
+        <v>1.052054740902268</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049096248622849</v>
+        <v>1.061658427265379</v>
       </c>
       <c r="J2">
-        <v>1.070707502821462</v>
+        <v>1.050983898774446</v>
       </c>
       <c r="K2">
-        <v>1.078200167420375</v>
+        <v>1.055541844033793</v>
       </c>
       <c r="L2">
-        <v>1.074079141773484</v>
+        <v>1.052548370997589</v>
       </c>
       <c r="M2">
-        <v>1.08598178331625</v>
+        <v>1.06283355190172</v>
       </c>
       <c r="N2">
-        <v>1.02717197696528</v>
+        <v>1.020081001430046</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.067039899323876</v>
+        <v>1.035916403994191</v>
       </c>
       <c r="D3">
-        <v>1.07672745977088</v>
+        <v>1.050354068340067</v>
       </c>
       <c r="E3">
-        <v>1.072527167338824</v>
+        <v>1.046991844879707</v>
       </c>
       <c r="F3">
-        <v>1.084549191914757</v>
+        <v>1.057807799796328</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049398172960842</v>
+        <v>1.06366273583609</v>
       </c>
       <c r="J3">
-        <v>1.071647532168435</v>
+        <v>1.055473636845112</v>
       </c>
       <c r="K3">
-        <v>1.079230188032737</v>
+        <v>1.060380782620356</v>
       </c>
       <c r="L3">
-        <v>1.075040221041172</v>
+        <v>1.05705679132686</v>
       </c>
       <c r="M3">
-        <v>1.087032921357636</v>
+        <v>1.067750823423041</v>
       </c>
       <c r="N3">
-        <v>1.02749133821702</v>
+        <v>1.021627699452761</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067871415466116</v>
+        <v>1.039864054422111</v>
       </c>
       <c r="D4">
-        <v>1.077512511587654</v>
+        <v>1.053941666028869</v>
       </c>
       <c r="E4">
-        <v>1.073268086722166</v>
+        <v>1.050371672176463</v>
       </c>
       <c r="F4">
-        <v>1.085347038162497</v>
+        <v>1.061440724502938</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049591457502019</v>
+        <v>1.064910616072515</v>
       </c>
       <c r="J4">
-        <v>1.072254723255136</v>
+        <v>1.058300223503484</v>
       </c>
       <c r="K4">
-        <v>1.079895837857626</v>
+        <v>1.063429896903284</v>
       </c>
       <c r="L4">
-        <v>1.075661319218596</v>
+        <v>1.059897913653307</v>
       </c>
       <c r="M4">
-        <v>1.087712297195847</v>
+        <v>1.070850128217316</v>
       </c>
       <c r="N4">
-        <v>1.027697469756699</v>
+        <v>1.022600869707388</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06822085724716</v>
+        <v>1.041499990785336</v>
       </c>
       <c r="D5">
-        <v>1.07784248503117</v>
+        <v>1.055429482830079</v>
       </c>
       <c r="E5">
-        <v>1.073579523650474</v>
+        <v>1.051773567836698</v>
       </c>
       <c r="F5">
-        <v>1.085682404738006</v>
+        <v>1.062947508546481</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049672216772912</v>
+        <v>1.065423884279674</v>
       </c>
       <c r="J5">
-        <v>1.07250973178019</v>
+        <v>1.059470513881605</v>
       </c>
       <c r="K5">
-        <v>1.080175477200263</v>
+        <v>1.064692965633154</v>
       </c>
       <c r="L5">
-        <v>1.075922242778318</v>
+        <v>1.061074885327318</v>
       </c>
       <c r="M5">
-        <v>1.087997721685946</v>
+        <v>1.072134184081824</v>
       </c>
       <c r="N5">
-        <v>1.027784004303999</v>
+        <v>1.023003641461768</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068279522657399</v>
+        <v>1.041773316681276</v>
       </c>
       <c r="D6">
-        <v>1.077897885427157</v>
+        <v>1.055678123998935</v>
       </c>
       <c r="E6">
-        <v>1.073631812660028</v>
+        <v>1.052007864055479</v>
       </c>
       <c r="F6">
-        <v>1.08573871150566</v>
+        <v>1.063199329353389</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049685747449751</v>
+        <v>1.065509410369898</v>
       </c>
       <c r="J6">
-        <v>1.072552533953525</v>
+        <v>1.059665977240313</v>
       </c>
       <c r="K6">
-        <v>1.080222418210293</v>
+        <v>1.064903962952857</v>
       </c>
       <c r="L6">
-        <v>1.075966042126569</v>
+        <v>1.061271503538443</v>
       </c>
       <c r="M6">
-        <v>1.08804563491092</v>
+        <v>1.072348698774338</v>
       </c>
       <c r="N6">
-        <v>1.027798526628338</v>
+        <v>1.023070903805944</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067876085222253</v>
+        <v>1.039886005362973</v>
       </c>
       <c r="D7">
-        <v>1.077516920951408</v>
+        <v>1.053961625269024</v>
       </c>
       <c r="E7">
-        <v>1.073272248334531</v>
+        <v>1.050390477824561</v>
       </c>
       <c r="F7">
-        <v>1.085351519533172</v>
+        <v>1.061460937525129</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049592538565686</v>
+        <v>1.064917518438926</v>
       </c>
       <c r="J7">
-        <v>1.072258131689822</v>
+        <v>1.058315930710511</v>
       </c>
       <c r="K7">
-        <v>1.079899575195202</v>
+        <v>1.063446846791759</v>
       </c>
       <c r="L7">
-        <v>1.075664806421213</v>
+        <v>1.059913707913769</v>
       </c>
       <c r="M7">
-        <v>1.087716111776989</v>
+        <v>1.070867358973231</v>
       </c>
       <c r="N7">
-        <v>1.027698626518828</v>
+        <v>1.022606276167036</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.066188692288237</v>
+        <v>1.031793510826124</v>
       </c>
       <c r="D8">
-        <v>1.075924017219614</v>
+        <v>1.046611150828425</v>
       </c>
       <c r="E8">
-        <v>1.071768936595649</v>
+        <v>1.043466567902424</v>
       </c>
       <c r="F8">
-        <v>1.083732707750741</v>
+        <v>1.054018192572232</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049198716535099</v>
+        <v>1.062346196816049</v>
       </c>
       <c r="J8">
-        <v>1.071025412895092</v>
+        <v>1.052517997891943</v>
       </c>
       <c r="K8">
-        <v>1.078548443232625</v>
+        <v>1.057194697206324</v>
       </c>
       <c r="L8">
-        <v>1.074404106427835</v>
+        <v>1.054088267559164</v>
       </c>
       <c r="M8">
-        <v>1.086337183089768</v>
+        <v>1.064512984372793</v>
       </c>
       <c r="N8">
-        <v>1.027280013857643</v>
+        <v>1.020609607998497</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.063210994615946</v>
+        <v>1.016683232636329</v>
       </c>
       <c r="D9">
-        <v>1.073114967097621</v>
+        <v>1.03292748872635</v>
       </c>
       <c r="E9">
-        <v>1.069118313132635</v>
+        <v>1.030586021732329</v>
       </c>
       <c r="F9">
-        <v>1.080878465088139</v>
+        <v>1.040168758709755</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0484887899057</v>
+        <v>1.05742008043649</v>
       </c>
       <c r="J9">
-        <v>1.068844925771135</v>
+        <v>1.041660312176501</v>
       </c>
       <c r="K9">
-        <v>1.076161041920498</v>
+        <v>1.045508011040424</v>
       </c>
       <c r="L9">
-        <v>1.072176509269538</v>
+        <v>1.043201614606224</v>
       </c>
       <c r="M9">
-        <v>1.083901273314458</v>
+        <v>1.052642089668313</v>
       </c>
       <c r="N9">
-        <v>1.026538385644028</v>
+        <v>1.016866337807096</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.061222797548233</v>
+        <v>1.005951279705716</v>
       </c>
       <c r="D10">
-        <v>1.071240690722992</v>
+        <v>1.023241012692641</v>
       </c>
       <c r="E10">
-        <v>1.067350041851489</v>
+        <v>1.021475007017823</v>
       </c>
       <c r="F10">
-        <v>1.07897437134853</v>
+        <v>1.030369322828063</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048004734958331</v>
+        <v>1.053840379892206</v>
       </c>
       <c r="J10">
-        <v>1.067385589007312</v>
+        <v>1.033930750985976</v>
       </c>
       <c r="K10">
-        <v>1.07456492968041</v>
+        <v>1.037202950578243</v>
       </c>
       <c r="L10">
-        <v>1.070687246875739</v>
+        <v>1.035467054872472</v>
       </c>
       <c r="M10">
-        <v>1.08227314130973</v>
+        <v>1.044211076657672</v>
       </c>
       <c r="N10">
-        <v>1.026041258109073</v>
+        <v>1.014199465404186</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.060361119003976</v>
+        <v>1.00112607146753</v>
       </c>
       <c r="D11">
-        <v>1.070428704491926</v>
+        <v>1.018894585290533</v>
       </c>
       <c r="E11">
-        <v>1.066584052179851</v>
+        <v>1.017388648881763</v>
       </c>
       <c r="F11">
-        <v>1.078149547882907</v>
+        <v>1.025973330456849</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047792569985361</v>
+        <v>1.052212634027896</v>
       </c>
       <c r="J11">
-        <v>1.066752307351756</v>
+        <v>1.03045207946797</v>
       </c>
       <c r="K11">
-        <v>1.073872698256422</v>
+        <v>1.033468762428482</v>
       </c>
       <c r="L11">
-        <v>1.070041359356678</v>
+        <v>1.031989925797369</v>
       </c>
       <c r="M11">
-        <v>1.081567120942013</v>
+        <v>1.040421505473296</v>
       </c>
       <c r="N11">
-        <v>1.025825346188435</v>
+        <v>1.012998942488874</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.060040933057453</v>
+        <v>0.9993048967161834</v>
       </c>
       <c r="D12">
-        <v>1.070127032031049</v>
+        <v>1.017255527162172</v>
       </c>
       <c r="E12">
-        <v>1.066299479550659</v>
+        <v>1.015847961721397</v>
       </c>
       <c r="F12">
-        <v>1.077843118221502</v>
+        <v>1.024315757205056</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047713376077178</v>
+        <v>1.051595617250869</v>
       </c>
       <c r="J12">
-        <v>1.066516868807483</v>
+        <v>1.029138703722905</v>
       </c>
       <c r="K12">
-        <v>1.073615404327781</v>
+        <v>1.032059440708469</v>
       </c>
       <c r="L12">
-        <v>1.069801291425873</v>
+        <v>1.030677710379607</v>
       </c>
       <c r="M12">
-        <v>1.081304716598055</v>
+        <v>1.038991476170923</v>
       </c>
       <c r="N12">
-        <v>1.025745048160934</v>
+        <v>1.01254565490396</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.060109619525283</v>
+        <v>0.9996968878771924</v>
       </c>
       <c r="D13">
-        <v>1.070191744765628</v>
+        <v>1.017608253991549</v>
       </c>
       <c r="E13">
-        <v>1.066360523645149</v>
+        <v>1.016179505261864</v>
       </c>
       <c r="F13">
-        <v>1.077908850888218</v>
+        <v>1.024672460426064</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047730380938532</v>
+        <v>1.051728542990752</v>
       </c>
       <c r="J13">
-        <v>1.066567380694173</v>
+        <v>1.029421413507784</v>
       </c>
       <c r="K13">
-        <v>1.073670602406839</v>
+        <v>1.032362779574031</v>
       </c>
       <c r="L13">
-        <v>1.069852793932237</v>
+        <v>1.03096014415976</v>
       </c>
       <c r="M13">
-        <v>1.081361010361789</v>
+        <v>1.039299263181066</v>
       </c>
       <c r="N13">
-        <v>1.025762276839426</v>
+        <v>1.012643228043564</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.060334654805872</v>
+        <v>1.000976134645863</v>
       </c>
       <c r="D14">
-        <v>1.070403769486091</v>
+        <v>1.01875961283957</v>
       </c>
       <c r="E14">
-        <v>1.066560530350661</v>
+        <v>1.017261770882001</v>
       </c>
       <c r="F14">
-        <v>1.078124219418433</v>
+        <v>1.025836829709738</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047786031679581</v>
+        <v>1.052161888626179</v>
       </c>
       <c r="J14">
-        <v>1.066732850216336</v>
+        <v>1.030343957688461</v>
       </c>
       <c r="K14">
-        <v>1.073851433708652</v>
+        <v>1.03335273138083</v>
       </c>
       <c r="L14">
-        <v>1.070021518473177</v>
+        <v>1.031881887758844</v>
       </c>
       <c r="M14">
-        <v>1.081545433732793</v>
+        <v>1.04030376555565</v>
       </c>
       <c r="N14">
-        <v>1.025818710746541</v>
+        <v>1.012961626727351</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.060473290438711</v>
+        <v>1.00176042753402</v>
       </c>
       <c r="D15">
-        <v>1.070534396270292</v>
+        <v>1.01946568778122</v>
       </c>
       <c r="E15">
-        <v>1.066683754390715</v>
+        <v>1.017925513939987</v>
       </c>
       <c r="F15">
-        <v>1.078256907908286</v>
+        <v>1.026550906767262</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047820268710857</v>
+        <v>1.052427221200762</v>
       </c>
       <c r="J15">
-        <v>1.066834773614002</v>
+        <v>1.03090950680472</v>
       </c>
       <c r="K15">
-        <v>1.073962827459533</v>
+        <v>1.033959672599977</v>
       </c>
       <c r="L15">
-        <v>1.070125454420021</v>
+        <v>1.032447022420051</v>
       </c>
       <c r="M15">
-        <v>1.081659042188909</v>
+        <v>1.040919653580051</v>
       </c>
       <c r="N15">
-        <v>1.025853468435753</v>
+        <v>1.013156812001626</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.061279967659655</v>
+        <v>1.006267583662227</v>
       </c>
       <c r="D16">
-        <v>1.071294570660977</v>
+        <v>1.02352612066048</v>
       </c>
       <c r="E16">
-        <v>1.067400871189404</v>
+        <v>1.021743095568783</v>
       </c>
       <c r="F16">
-        <v>1.079029104809808</v>
+        <v>1.03065770596669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048018761511545</v>
+        <v>1.053946710574028</v>
       </c>
       <c r="J16">
-        <v>1.067427588568267</v>
+        <v>1.034158723106814</v>
       </c>
       <c r="K16">
-        <v>1.074610847325395</v>
+        <v>1.037447740161078</v>
       </c>
       <c r="L16">
-        <v>1.070730090472896</v>
+        <v>1.035695005245517</v>
       </c>
       <c r="M16">
-        <v>1.082319975680802</v>
+        <v>1.044459523281975</v>
       </c>
       <c r="N16">
-        <v>1.026055573666116</v>
+        <v>1.014278135851617</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.061785764670734</v>
+        <v>1.009045675249424</v>
       </c>
       <c r="D17">
-        <v>1.071771295720111</v>
+        <v>1.026031217394708</v>
       </c>
       <c r="E17">
-        <v>1.067850613172735</v>
+        <v>1.024098863713784</v>
       </c>
       <c r="F17">
-        <v>1.079513391066712</v>
+        <v>1.033191707889016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048142583195244</v>
+        <v>1.054878551815202</v>
       </c>
       <c r="J17">
-        <v>1.067799074833423</v>
+        <v>1.036160625321824</v>
       </c>
       <c r="K17">
-        <v>1.075017035692229</v>
+        <v>1.039597716902962</v>
       </c>
       <c r="L17">
-        <v>1.071109086138881</v>
+        <v>1.037697146568026</v>
       </c>
       <c r="M17">
-        <v>1.082734284739193</v>
+        <v>1.046641761840795</v>
       </c>
       <c r="N17">
-        <v>1.026182173768103</v>
+        <v>1.014968935930947</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.062080712871275</v>
+        <v>1.010649048456575</v>
       </c>
       <c r="D18">
-        <v>1.072049321795017</v>
+        <v>1.02747784767793</v>
       </c>
       <c r="E18">
-        <v>1.068112909685564</v>
+        <v>1.025459434214297</v>
       </c>
       <c r="F18">
-        <v>1.079795834587491</v>
+        <v>1.034655135561837</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048214558768517</v>
+        <v>1.055414633632697</v>
       </c>
       <c r="J18">
-        <v>1.068015623572629</v>
+        <v>1.037315697559157</v>
       </c>
       <c r="K18">
-        <v>1.075253852113688</v>
+        <v>1.040838554797593</v>
       </c>
       <c r="L18">
-        <v>1.071330048954122</v>
+        <v>1.038852713685742</v>
       </c>
       <c r="M18">
-        <v>1.082975845137384</v>
+        <v>1.047901336635161</v>
       </c>
       <c r="N18">
-        <v>1.026255954565348</v>
+        <v>1.015367489141641</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.062181270032766</v>
+        <v>1.011192927304682</v>
       </c>
       <c r="D19">
-        <v>1.072144114867909</v>
+        <v>1.027968693446647</v>
       </c>
       <c r="E19">
-        <v>1.068202340937624</v>
+        <v>1.025921108578916</v>
       </c>
       <c r="F19">
-        <v>1.079892135103535</v>
+        <v>1.035151698393142</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048239058621562</v>
+        <v>1.055596181615677</v>
       </c>
       <c r="J19">
-        <v>1.06808943862188</v>
+        <v>1.037707451310462</v>
       </c>
       <c r="K19">
-        <v>1.075334582422909</v>
+        <v>1.041259452495892</v>
       </c>
       <c r="L19">
-        <v>1.071405374848391</v>
+        <v>1.03924469559515</v>
       </c>
       <c r="M19">
-        <v>1.083058194260151</v>
+        <v>1.048328609676881</v>
       </c>
       <c r="N19">
-        <v>1.026281101262758</v>
+        <v>1.015502656748881</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.06173150518565</v>
+        <v>1.008749389418863</v>
       </c>
       <c r="D20">
-        <v>1.071720151748251</v>
+        <v>1.025763961285934</v>
       </c>
       <c r="E20">
-        <v>1.067802363274776</v>
+        <v>1.023847520549003</v>
       </c>
       <c r="F20">
-        <v>1.079461435112559</v>
+        <v>1.032921357039243</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04812932390942</v>
+        <v>1.054779349182296</v>
       </c>
       <c r="J20">
-        <v>1.067759231638704</v>
+        <v>1.035947153821205</v>
       </c>
       <c r="K20">
-        <v>1.074973466546856</v>
+        <v>1.039368421445583</v>
       </c>
       <c r="L20">
-        <v>1.071068433742234</v>
+        <v>1.037483612442637</v>
       </c>
       <c r="M20">
-        <v>1.082689843563734</v>
+        <v>1.046409013423568</v>
       </c>
       <c r="N20">
-        <v>1.026168597286846</v>
+        <v>1.014895275897583</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.060268390870604</v>
+        <v>1.000600243534488</v>
       </c>
       <c r="D21">
-        <v>1.070341335296066</v>
+        <v>1.018421260412452</v>
       </c>
       <c r="E21">
-        <v>1.066501634759428</v>
+        <v>1.016943714692648</v>
       </c>
       <c r="F21">
-        <v>1.078060800252651</v>
+        <v>1.025494648971097</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047769654596786</v>
+        <v>1.052034627613373</v>
       </c>
       <c r="J21">
-        <v>1.066684129369413</v>
+        <v>1.030072890232005</v>
       </c>
       <c r="K21">
-        <v>1.07379818806457</v>
+        <v>1.033061843383183</v>
       </c>
       <c r="L21">
-        <v>1.069971837640787</v>
+        <v>1.031611039575473</v>
       </c>
       <c r="M21">
-        <v>1.081491129998665</v>
+        <v>1.040008596603545</v>
       </c>
       <c r="N21">
-        <v>1.025802095098526</v>
+        <v>1.012868073579838</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.059347775789179</v>
+        <v>0.9953082651256665</v>
       </c>
       <c r="D22">
-        <v>1.069474043444475</v>
+        <v>1.013661274823765</v>
       </c>
       <c r="E22">
-        <v>1.065683524864903</v>
+        <v>1.012469995608189</v>
       </c>
       <c r="F22">
-        <v>1.077179854648719</v>
+        <v>1.02068123680133</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047541280245423</v>
+        <v>1.050236757655269</v>
       </c>
       <c r="J22">
-        <v>1.066006956400384</v>
+        <v>1.026255773273574</v>
       </c>
       <c r="K22">
-        <v>1.073058268555292</v>
+        <v>1.028966871699336</v>
       </c>
       <c r="L22">
-        <v>1.069281457288841</v>
+        <v>1.027798402017682</v>
       </c>
       <c r="M22">
-        <v>1.080736541960926</v>
+        <v>1.035853833876525</v>
       </c>
       <c r="N22">
-        <v>1.025571089069959</v>
+        <v>1.011550629890589</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.059835878529414</v>
+        <v>0.99813035715293</v>
       </c>
       <c r="D23">
-        <v>1.069933847734497</v>
+        <v>1.016198851941609</v>
       </c>
       <c r="E23">
-        <v>1.066117248717262</v>
+        <v>1.014854791156798</v>
       </c>
       <c r="F23">
-        <v>1.07764689094518</v>
+        <v>1.023247196208908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047662558051031</v>
+        <v>1.051196943794038</v>
       </c>
       <c r="J23">
-        <v>1.066366054411028</v>
+        <v>1.028291553292333</v>
       </c>
       <c r="K23">
-        <v>1.073450607153261</v>
+        <v>1.031150551449544</v>
       </c>
       <c r="L23">
-        <v>1.069647527687099</v>
+        <v>1.029831472417692</v>
       </c>
       <c r="M23">
-        <v>1.08113665035694</v>
+        <v>1.038069288098818</v>
       </c>
       <c r="N23">
-        <v>1.025693604150897</v>
+        <v>1.012253270416443</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.061756022941911</v>
+        <v>1.00888332073701</v>
       </c>
       <c r="D24">
-        <v>1.071743261629968</v>
+        <v>1.02588476765311</v>
       </c>
       <c r="E24">
-        <v>1.067824165420632</v>
+        <v>1.023961133334487</v>
       </c>
       <c r="F24">
-        <v>1.079484911872108</v>
+        <v>1.03304356197941</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048135315974748</v>
+        <v>1.054824197536824</v>
       </c>
       <c r="J24">
-        <v>1.067777235474022</v>
+        <v>1.036043651244526</v>
       </c>
       <c r="K24">
-        <v>1.074993153896913</v>
+        <v>1.039472070893152</v>
       </c>
       <c r="L24">
-        <v>1.071086803116123</v>
+        <v>1.037580137067373</v>
       </c>
       <c r="M24">
-        <v>1.082709924924057</v>
+        <v>1.046514223364342</v>
       </c>
       <c r="N24">
-        <v>1.02617473210869</v>
+        <v>1.01492857319179</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.063981328082024</v>
+        <v>1.020698803495278</v>
       </c>
       <c r="D25">
-        <v>1.073841442090598</v>
+        <v>1.036558747085323</v>
       </c>
       <c r="E25">
-        <v>1.069803763855253</v>
+        <v>1.034003027995391</v>
       </c>
       <c r="F25">
-        <v>1.081616568709274</v>
+        <v>1.043843280642339</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048674218467169</v>
+        <v>1.058743340526188</v>
       </c>
       <c r="J25">
-        <v>1.069409626584503</v>
+        <v>1.044549100337965</v>
       </c>
       <c r="K25">
-        <v>1.076779028830543</v>
+        <v>1.04861485726882</v>
       </c>
       <c r="L25">
-        <v>1.072753128428622</v>
+        <v>1.046095464730982</v>
       </c>
       <c r="M25">
-        <v>1.084531744652643</v>
+        <v>1.055797081544109</v>
       </c>
       <c r="N25">
-        <v>1.026730589287099</v>
+        <v>1.017862676168155</v>
       </c>
     </row>
   </sheetData>
